--- a/medicine/Mort/Cimetière_du_Père-Raimbault/Cimetière_du_Père-Raimbault.xlsx
+++ b/medicine/Mort/Cimetière_du_Père-Raimbault/Cimetière_du_Père-Raimbault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_P%C3%A8re-Raimbault</t>
+          <t>Cimetière_du_Père-Raimbault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Père-Raimbault, également appelé ancien cimetière des lépreux, est un cimetière de l'île de La Réunion, département et région d'outre-mer français dans le sud-ouest de l'océan Indien. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_P%C3%A8re-Raimbault</t>
+          <t>Cimetière_du_Père-Raimbault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé chemin du Père-Raimbault à Saint-Bernard, dans le quartier de la Montagne, sur le territoire de la commune de Saint-Denis, il est inscrit monument historique depuis le 17 décembre 2015[1]. Du fait de son époque d'aménagement, il bénéficie également du label « Patrimoine du XXe siècle ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé chemin du Père-Raimbault à Saint-Bernard, dans le quartier de la Montagne, sur le territoire de la commune de Saint-Denis, il est inscrit monument historique depuis le 17 décembre 2015. Du fait de son époque d'aménagement, il bénéficie également du label « Patrimoine du XXe siècle ».
 </t>
         </is>
       </c>
